--- a/data/Thesis_committee.xlsx
+++ b/data/Thesis_committee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1705A0-5B7B-4D87-B079-77BFFF190F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF323275-3826-42A0-BB6B-0126F26E5F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="2820" windowWidth="19140" windowHeight="15130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24270" yWindow="5085" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Insitution</t>
   </si>
@@ -39,36 +39,53 @@
     <t>year</t>
   </si>
   <si>
-    <t>Trinity College Dublin</t>
-  </si>
-  <si>
-    <t>PhD Thesis Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultan Doherty </t>
-  </si>
-  <si>
     <t xml:space="preserve">Supervisor </t>
   </si>
   <si>
-    <t xml:space="preserve">Aurthur White </t>
+    <t>School of Computer Science and Statistics PhD student</t>
+  </si>
+  <si>
+    <t>2022-current</t>
+  </si>
+  <si>
+    <t>School of Medicine PhD student</t>
+  </si>
+  <si>
+    <t>2021-current</t>
+  </si>
+  <si>
+    <t>Ultan Doherty</t>
+  </si>
+  <si>
+    <t>Sarah Connolly</t>
+  </si>
+  <si>
+    <t>Mariya Al Hamrashdi</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>why</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,9 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,52 +393,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Thesis_committee.xlsx
+++ b/data/Thesis_committee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF323275-3826-42A0-BB6B-0126F26E5F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54186E-DE2C-4F49-9397-51E21021CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24270" yWindow="5085" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17805" yWindow="4170" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,15 +45,9 @@
     <t>School of Computer Science and Statistics PhD student</t>
   </si>
   <si>
-    <t>2022-current</t>
-  </si>
-  <si>
     <t>School of Medicine PhD student</t>
   </si>
   <si>
-    <t>2021-current</t>
-  </si>
-  <si>
     <t>Ultan Doherty</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>why</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2021-2023</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,19 +409,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,35 +443,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/Thesis_committee.xlsx
+++ b/data/Thesis_committee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54186E-DE2C-4F49-9397-51E21021CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9023A-CD68-C145-907A-00F950B505B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="4170" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="4180" windowWidth="23760" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Insitution</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>2021-2023</t>
+  </si>
+  <si>
+    <t>2022-2026</t>
+  </si>
+  <si>
+    <t>2025-2028</t>
+  </si>
+  <si>
+    <t>Redacted</t>
   </si>
 </sst>
 </file>
@@ -393,21 +402,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -424,7 +433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -441,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -452,7 +461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -463,7 +472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -471,7 +480,29 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
